--- a/teams/charts.xlsx
+++ b/teams/charts.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-440" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="56">
   <si>
     <t>Name</t>
   </si>
@@ -182,6 +183,12 @@
   </si>
   <si>
     <t>cost turns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">explaination </t>
+  </si>
+  <si>
+    <t>ideas about strategies</t>
   </si>
 </sst>
 </file>
@@ -467,11 +474,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2134584440"/>
-        <c:axId val="2134579928"/>
+        <c:axId val="2133554088"/>
+        <c:axId val="2133377208"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2134584440"/>
+        <c:axId val="2133554088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -480,7 +487,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2134579928"/>
+        <c:crossAx val="2133377208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -488,7 +495,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2134579928"/>
+        <c:axId val="2133377208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -499,7 +506,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2134584440"/>
+        <c:crossAx val="2133554088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -737,11 +744,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2132119928"/>
-        <c:axId val="2133376280"/>
+        <c:axId val="2135900280"/>
+        <c:axId val="2135785624"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2132119928"/>
+        <c:axId val="2135900280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -750,7 +757,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2133376280"/>
+        <c:crossAx val="2135785624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -758,7 +765,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2133376280"/>
+        <c:axId val="2135785624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -769,7 +776,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2132119928"/>
+        <c:crossAx val="2135900280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1203,11 +1210,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2133081864"/>
-        <c:axId val="2132967448"/>
+        <c:axId val="2133353592"/>
+        <c:axId val="2133477960"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2133081864"/>
+        <c:axId val="2133353592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1216,7 +1223,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2132967448"/>
+        <c:crossAx val="2133477960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1224,7 +1231,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2132967448"/>
+        <c:axId val="2133477960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1235,7 +1242,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2133081864"/>
+        <c:crossAx val="2133353592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1473,11 +1480,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2136098104"/>
-        <c:axId val="2134011368"/>
+        <c:axId val="2135023416"/>
+        <c:axId val="2135026392"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2136098104"/>
+        <c:axId val="2135023416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1486,7 +1493,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2134011368"/>
+        <c:crossAx val="2135026392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1494,7 +1501,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2134011368"/>
+        <c:axId val="2135026392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1505,7 +1512,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2136098104"/>
+        <c:crossAx val="2135023416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1731,11 +1738,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2135869048"/>
-        <c:axId val="2135863976"/>
+        <c:axId val="2106629608"/>
+        <c:axId val="2106628664"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2135869048"/>
+        <c:axId val="2106629608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1744,7 +1751,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2135863976"/>
+        <c:crossAx val="2106628664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1752,7 +1759,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2135863976"/>
+        <c:axId val="2106628664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1763,14 +1770,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2135869048"/>
+        <c:crossAx val="2106629608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2269,7 +2275,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+    <sheetView topLeftCell="A103" workbookViewId="0">
       <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
@@ -2934,4 +2940,36 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="22.33203125" customWidth="1"/>
+    <col min="2" max="2" width="29.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/teams/charts.xlsx
+++ b/teams/charts.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="3200" yWindow="0" windowWidth="25600" windowHeight="16220" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="59">
   <si>
     <t>Name</t>
   </si>
@@ -176,9 +176,6 @@
     <t>Cost ore</t>
   </si>
   <si>
-    <t>Cost turns</t>
-  </si>
-  <si>
     <t>cost ore</t>
   </si>
   <si>
@@ -189,13 +186,25 @@
   </si>
   <si>
     <t>ideas about strategies</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>2*</t>
+  </si>
+  <si>
+    <t>8*</t>
+  </si>
+  <si>
+    <t>3*</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -213,6 +222,22 @@
       <sz val="16"/>
       <color rgb="FF333333"/>
       <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -232,15 +257,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -365,9 +394,6 @@
                 <c:pt idx="8">
                   <c:v>400.0</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -381,7 +407,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Cost turns</c:v>
+                  <c:v>cost turns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -441,7 +467,7 @@
                   <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15.0</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>20.0</c:v>
@@ -453,13 +479,13 @@
                   <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>80.0</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.0</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -474,11 +500,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2133554088"/>
-        <c:axId val="2133377208"/>
+        <c:axId val="2129303928"/>
+        <c:axId val="2129306904"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2133554088"/>
+        <c:axId val="2129303928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -487,7 +513,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2133377208"/>
+        <c:crossAx val="2129306904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -495,7 +521,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2133377208"/>
+        <c:axId val="2129306904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -506,7 +532,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2133554088"/>
+        <c:crossAx val="2129303928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -630,13 +656,13 @@
                   <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10.0</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20.0</c:v>
+                  <c:v>18.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -711,10 +737,10 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.0</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>5.0</c:v>
@@ -729,7 +755,7 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -744,11 +770,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2135900280"/>
-        <c:axId val="2135785624"/>
+        <c:axId val="2129336232"/>
+        <c:axId val="2129339208"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2135900280"/>
+        <c:axId val="2129336232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -757,7 +783,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2135785624"/>
+        <c:crossAx val="2129339208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -765,7 +791,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2135785624"/>
+        <c:axId val="2129339208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -776,7 +802,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2135900280"/>
+        <c:crossAx val="2129336232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1006,7 +1032,7 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.0</c:v>
@@ -1210,11 +1236,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2133353592"/>
-        <c:axId val="2133477960"/>
+        <c:axId val="2129376728"/>
+        <c:axId val="2129379848"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2133353592"/>
+        <c:axId val="2129376728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1223,7 +1249,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2133477960"/>
+        <c:crossAx val="2129379848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1231,7 +1257,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2133477960"/>
+        <c:axId val="2129379848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1242,7 +1268,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2133353592"/>
+        <c:crossAx val="2129376728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1366,7 +1392,7 @@
                   <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.0</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>25.0</c:v>
@@ -1456,16 +1482,16 @@
                   <c:v>70.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>160.0</c:v>
+                  <c:v>144.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>300.0</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1480,11 +1506,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2135023416"/>
-        <c:axId val="2135026392"/>
+        <c:axId val="2129406248"/>
+        <c:axId val="2129409224"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2135023416"/>
+        <c:axId val="2129406248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1493,7 +1519,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2135026392"/>
+        <c:crossAx val="2129409224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1501,7 +1527,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2135026392"/>
+        <c:axId val="2129409224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1512,7 +1538,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2135023416"/>
+        <c:crossAx val="2129406248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1738,11 +1764,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2106629608"/>
-        <c:axId val="2106628664"/>
+        <c:axId val="2129448760"/>
+        <c:axId val="2129451736"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2106629608"/>
+        <c:axId val="2129448760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1751,7 +1777,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2106628664"/>
+        <c:crossAx val="2129451736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1759,7 +1785,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2106628664"/>
+        <c:axId val="2129451736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1770,7 +1796,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2106629608"/>
+        <c:crossAx val="2129448760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2275,8 +2301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:L14"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="C64" sqref="C64"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2298,7 +2324,7 @@
         <v>50</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>2</v>
@@ -2335,7 +2361,7 @@
       <c r="C5" s="2">
         <v>100</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5">
         <v>20</v>
       </c>
       <c r="E5" s="2">
@@ -2373,7 +2399,7 @@
       <c r="C6" s="2">
         <v>60</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6">
         <v>20</v>
       </c>
       <c r="E6" s="2">
@@ -2411,7 +2437,7 @@
       <c r="C7" s="2">
         <v>10</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7">
         <v>25</v>
       </c>
       <c r="E7" s="2">
@@ -2420,23 +2446,23 @@
       <c r="F7" s="2">
         <v>1</v>
       </c>
-      <c r="G7" s="2">
-        <v>0</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0</v>
+      <c r="G7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="I7" s="2">
         <v>8</v>
       </c>
-      <c r="J7" s="2">
-        <v>0</v>
-      </c>
-      <c r="K7" s="2">
-        <v>0</v>
-      </c>
-      <c r="L7" s="2">
-        <v>0</v>
+      <c r="J7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="19">
@@ -2449,8 +2475,8 @@
       <c r="C8" s="2">
         <v>60</v>
       </c>
-      <c r="D8" s="2">
-        <v>15</v>
+      <c r="D8">
+        <v>20</v>
       </c>
       <c r="E8" s="2">
         <v>5</v>
@@ -2462,7 +2488,7 @@
         <v>4</v>
       </c>
       <c r="H8" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I8" s="2">
         <v>2</v>
@@ -2487,7 +2513,7 @@
       <c r="C9" s="2">
         <v>80</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9">
         <v>20</v>
       </c>
       <c r="E9" s="2">
@@ -2499,8 +2525,8 @@
       <c r="G9" s="2">
         <v>4</v>
       </c>
-      <c r="H9" s="2">
-        <v>2</v>
+      <c r="H9" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="I9" s="2">
         <v>2</v>
@@ -2525,7 +2551,7 @@
       <c r="C10" s="2">
         <v>125</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10">
         <v>30</v>
       </c>
       <c r="E10" s="2">
@@ -2563,14 +2589,14 @@
       <c r="C11" s="2">
         <v>250</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11">
         <v>50</v>
       </c>
       <c r="E11" s="2">
         <v>15</v>
       </c>
       <c r="F11" s="2">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="G11" s="2">
         <v>20</v>
@@ -2601,17 +2627,17 @@
       <c r="C12" s="2">
         <v>100</v>
       </c>
-      <c r="D12" s="2">
-        <v>80</v>
+      <c r="D12">
+        <v>200</v>
       </c>
       <c r="E12" s="2">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F12" s="2">
         <v>200</v>
       </c>
       <c r="G12" s="2">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H12" s="2">
         <v>10</v>
@@ -2639,32 +2665,32 @@
       <c r="C13" s="2">
         <v>400</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13">
         <v>100</v>
       </c>
       <c r="E13" s="2">
         <v>25</v>
       </c>
       <c r="F13" s="2">
-        <v>300</v>
-      </c>
-      <c r="G13" s="2">
-        <v>0</v>
-      </c>
-      <c r="H13" s="2">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="I13" s="2">
         <v>4</v>
       </c>
-      <c r="J13" s="2">
-        <v>6</v>
-      </c>
-      <c r="K13" s="2">
-        <v>0</v>
-      </c>
-      <c r="L13" s="2">
-        <v>0</v>
+      <c r="J13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="19">
@@ -2674,23 +2700,21 @@
       <c r="B14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="2">
-        <v>0</v>
-      </c>
-      <c r="D14" s="2">
-        <v>6</v>
+      <c r="C14" s="2"/>
+      <c r="D14">
+        <v>8</v>
       </c>
       <c r="E14" s="2">
         <v>0</v>
       </c>
-      <c r="F14" s="2">
-        <v>3</v>
+      <c r="F14" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="G14" s="2">
-        <v>20</v>
-      </c>
-      <c r="H14" s="2">
-        <v>2</v>
+        <v>18</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="I14" s="2">
         <v>1</v>
@@ -2739,10 +2763,10 @@
         <v>28</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>29</v>
@@ -2944,10 +2968,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:B3"/>
+  <dimension ref="A3:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20:N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2958,14 +2982,431 @@
   <sheetData>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="3:14" ht="20">
+      <c r="C20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" ht="19">
+      <c r="C21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="2">
+        <v>100</v>
+      </c>
+      <c r="F21">
+        <v>20</v>
+      </c>
+      <c r="G21" s="2">
+        <v>10</v>
+      </c>
+      <c r="H21" s="2">
+        <v>30</v>
+      </c>
+      <c r="I21" s="2">
+        <v>4</v>
+      </c>
+      <c r="J21" s="2">
+        <v>5</v>
+      </c>
+      <c r="K21" s="2">
+        <v>2</v>
+      </c>
+      <c r="L21" s="2">
+        <v>2</v>
+      </c>
+      <c r="M21" s="2">
+        <v>1</v>
+      </c>
+      <c r="N21" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" ht="19">
+      <c r="C22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="2">
+        <v>60</v>
+      </c>
+      <c r="F22">
+        <v>20</v>
+      </c>
+      <c r="G22" s="2">
+        <v>8</v>
+      </c>
+      <c r="H22" s="2">
+        <v>50</v>
+      </c>
+      <c r="I22" s="2">
+        <v>3</v>
+      </c>
+      <c r="J22" s="2">
+        <v>5</v>
+      </c>
+      <c r="K22" s="2">
+        <v>2</v>
+      </c>
+      <c r="L22" s="2">
+        <v>2</v>
+      </c>
+      <c r="M22" s="2">
+        <v>2</v>
+      </c>
+      <c r="N22" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" ht="19">
+      <c r="C23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="2">
+        <v>10</v>
+      </c>
+      <c r="F23">
+        <v>25</v>
+      </c>
+      <c r="G23" s="2">
+        <v>2</v>
+      </c>
+      <c r="H23" s="2">
+        <v>1</v>
+      </c>
+      <c r="I23" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B3" t="s">
-        <v>54</v>
+      <c r="J23" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K23" s="2">
+        <v>8</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" ht="19">
+      <c r="C24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="2">
+        <v>60</v>
+      </c>
+      <c r="F24">
+        <v>20</v>
+      </c>
+      <c r="G24" s="2">
+        <v>5</v>
+      </c>
+      <c r="H24" s="2">
+        <v>40</v>
+      </c>
+      <c r="I24" s="2">
+        <v>4</v>
+      </c>
+      <c r="J24" s="2">
+        <v>8</v>
+      </c>
+      <c r="K24" s="2">
+        <v>2</v>
+      </c>
+      <c r="L24" s="2">
+        <v>1</v>
+      </c>
+      <c r="M24" s="2">
+        <v>1</v>
+      </c>
+      <c r="N24" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" ht="19">
+      <c r="C25" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" s="2">
+        <v>80</v>
+      </c>
+      <c r="F25">
+        <v>20</v>
+      </c>
+      <c r="G25" s="2">
+        <v>6</v>
+      </c>
+      <c r="H25" s="2">
+        <v>64</v>
+      </c>
+      <c r="I25" s="2">
+        <v>4</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K25" s="2">
+        <v>2</v>
+      </c>
+      <c r="L25" s="2">
+        <v>1</v>
+      </c>
+      <c r="M25" s="2">
+        <v>0</v>
+      </c>
+      <c r="N25" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" ht="19">
+      <c r="C26" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="2">
+        <v>125</v>
+      </c>
+      <c r="F26">
+        <v>30</v>
+      </c>
+      <c r="G26" s="2">
+        <v>10</v>
+      </c>
+      <c r="H26" s="2">
+        <v>70</v>
+      </c>
+      <c r="I26" s="2">
+        <v>8</v>
+      </c>
+      <c r="J26" s="2">
+        <v>5</v>
+      </c>
+      <c r="K26" s="2">
+        <v>1</v>
+      </c>
+      <c r="L26" s="2">
+        <v>3</v>
+      </c>
+      <c r="M26" s="2">
+        <v>1</v>
+      </c>
+      <c r="N26" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" ht="19">
+      <c r="C27" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" s="2">
+        <v>250</v>
+      </c>
+      <c r="F27">
+        <v>50</v>
+      </c>
+      <c r="G27" s="2">
+        <v>15</v>
+      </c>
+      <c r="H27" s="2">
+        <v>144</v>
+      </c>
+      <c r="I27" s="2">
+        <v>20</v>
+      </c>
+      <c r="J27" s="2">
+        <v>15</v>
+      </c>
+      <c r="K27" s="2">
+        <v>2</v>
+      </c>
+      <c r="L27" s="2">
+        <v>3</v>
+      </c>
+      <c r="M27" s="2">
+        <v>2</v>
+      </c>
+      <c r="N27" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" ht="19">
+      <c r="C28" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" s="2">
+        <v>100</v>
+      </c>
+      <c r="F28">
+        <v>200</v>
+      </c>
+      <c r="G28" s="2">
+        <v>15</v>
+      </c>
+      <c r="H28" s="2">
+        <v>200</v>
+      </c>
+      <c r="I28" s="2">
+        <v>6</v>
+      </c>
+      <c r="J28" s="2">
+        <v>10</v>
+      </c>
+      <c r="K28" s="2">
+        <v>2</v>
+      </c>
+      <c r="L28" s="2">
+        <v>1</v>
+      </c>
+      <c r="M28" s="2">
+        <v>0</v>
+      </c>
+      <c r="N28" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" ht="19">
+      <c r="C29" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="2">
+        <v>400</v>
+      </c>
+      <c r="F29">
+        <v>100</v>
+      </c>
+      <c r="G29" s="2">
+        <v>25</v>
+      </c>
+      <c r="H29" s="2">
+        <v>200</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K29" s="2">
+        <v>4</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" ht="19">
+      <c r="C30" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30">
+        <v>8</v>
+      </c>
+      <c r="G30" s="2">
+        <v>0</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I30" s="2">
+        <v>18</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K30" s="2">
+        <v>1</v>
+      </c>
+      <c r="L30" s="2">
+        <v>0</v>
+      </c>
+      <c r="M30" s="2">
+        <v>0</v>
+      </c>
+      <c r="N30" s="2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
